--- a/utils/projekt_info.xlsx
+++ b/utils/projekt_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmitrenkovla\Desktop\maler\PythonPaintProgram-main\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CCC184-FA19-40AD-BE9A-63118A06F78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1183BE4-4697-485D-A156-BF40F00ABEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
   <si>
     <t>Beton</t>
   </si>
@@ -216,9 +216,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>Anzahl der Bauabschnitte</t>
-  </si>
-  <si>
     <t>[ja/nein]</t>
   </si>
   <si>
@@ -232,6 +229,15 @@
   </si>
   <si>
     <t>Testprojekt</t>
+  </si>
+  <si>
+    <t>Muster Bauabschnitte</t>
+  </si>
+  <si>
+    <t>Sonder BA</t>
+  </si>
+  <si>
+    <t>BA 2.1</t>
   </si>
 </sst>
 </file>
@@ -586,6 +592,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF9D86F2"/>
+      <color rgb="FF8497B0"/>
       <color rgb="FFFFE699"/>
       <color rgb="FFBF8F00"/>
       <color rgb="FF8057FF"/>
@@ -594,8 +602,6 @@
       <color rgb="FF00C000"/>
       <color rgb="FF00B0F0"/>
       <color rgb="FFFFFF00"/>
-      <color rgb="FFFF0000"/>
-      <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -872,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5D15DC-0F6E-4BF4-B870-E676A4C2C0FF}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +894,7 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -905,21 +911,13 @@
       </c>
       <c r="B3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C11AAA84-D484-4056-A415-81156A811647}">
           <x14:formula1>
             <xm:f>Hilfstabelle!$A$2:$A$18</xm:f>
@@ -942,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
@@ -1031,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22201E99-7EBB-46A1-8838-B06109ACFC34}">
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,87 +1104,12 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1196,111 +1119,230 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEEEA13-DE67-41F2-9AFC-D4F8D7A0E2C4}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E16" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E17" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>30</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" s="39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" s="41" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/utils/projekt_info.xlsx
+++ b/utils/projekt_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmitrenkovla\Desktop\maler\PythonPaintProgram-main\utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\github\test_github\PythonPaintProgram\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1183BE4-4697-485D-A156-BF40F00ABEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30EBBA37-0C11-44A6-8BA8-801D1E8FD7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projekt" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>Beton</t>
   </si>
@@ -232,12 +232,6 @@
   </si>
   <si>
     <t>Muster Bauabschnitte</t>
-  </si>
-  <si>
-    <t>Sonder BA</t>
-  </si>
-  <si>
-    <t>BA 2.1</t>
   </si>
 </sst>
 </file>
@@ -884,12 +878,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -897,7 +891,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -905,7 +899,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -940,16 +934,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -957,7 +951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -985,7 +979,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -999,7 +993,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1029,87 +1023,72 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22201E99-7EBB-46A1-8838-B06109ACFC34}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A13" sqref="A13:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="23" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1121,13 +1100,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEEEA13-DE67-41F2-9AFC-D4F8D7A0E2C4}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1138,7 +1117,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -1149,7 +1128,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
@@ -1160,7 +1139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>16</v>
       </c>
@@ -1168,7 +1147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>17</v>
       </c>
@@ -1176,7 +1155,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>18</v>
       </c>
@@ -1184,7 +1163,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>19</v>
       </c>
@@ -1192,7 +1171,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>20</v>
       </c>
@@ -1200,7 +1179,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
@@ -1208,7 +1187,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>22</v>
       </c>
@@ -1216,7 +1195,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>23</v>
       </c>
@@ -1224,7 +1203,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>24</v>
       </c>
@@ -1232,7 +1211,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>25</v>
       </c>
@@ -1240,7 +1219,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
@@ -1248,7 +1227,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
@@ -1256,7 +1235,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>28</v>
       </c>
@@ -1264,7 +1243,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>29</v>
       </c>
@@ -1272,7 +1251,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>30</v>
       </c>
@@ -1280,67 +1259,67 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E19" s="29" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E20" s="30" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E21" s="31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E22" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E23" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E24" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E25" s="35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E26" s="36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E27" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E28" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E29" s="39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E30" s="40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E31" s="41" t="s">
         <v>61</v>
       </c>
